--- a/src/main/resources/SiteData.xlsx
+++ b/src/main/resources/SiteData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\IdeaProjects\springboot-init\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF34174-6776-4190-A61B-15FD34FFEFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD795AA2-91F6-4FBE-AF99-20F0C9844E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="22.5"/>
@@ -487,6 +487,110 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
